--- a/results/gpcr_1/summary_of_methods.xlsx
+++ b/results/gpcr_1/summary_of_methods.xlsx
@@ -12,6 +12,7 @@
     <sheet name="joint_nbglm" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="phenotype_nbglm" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="dm" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ccd_dm" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +479,7 @@
         <v>72</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -492,6 +493,19 @@
       </c>
       <c r="C5" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ccd_dm</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -13076,28 +13090,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8460187630495561</v>
+        <v>0.8464588336842271</v>
       </c>
       <c r="D2" t="n">
-        <v>1.605628282855068</v>
+        <v>1.588461961595828</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7596095198055115</v>
+        <v>-0.7420031279116006</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3887766557336286</v>
+        <v>0.3662671705767443</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.953845501274027</v>
+        <v>-2.025852130681551</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05071949133766252</v>
+        <v>0.0427799399292456</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>0.2282377110194813</v>
+        <v>0.1925097296816052</v>
       </c>
     </row>
     <row r="3">
@@ -13112,28 +13126,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.866844075054269</v>
+        <v>1.867038552186841</v>
       </c>
       <c r="D3" t="n">
-        <v>3.147073223978718</v>
+        <v>3.137846655080066</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.280229148924448</v>
+        <v>-1.270808102893225</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4755337645096137</v>
+        <v>0.4480663415103887</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.692194002763744</v>
+        <v>-2.836205233826431</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007098364072238982</v>
+        <v>0.004565309859099221</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.0906575978198261</v>
+        <v>0.06292764455533642</v>
       </c>
     </row>
     <row r="4">
@@ -13148,28 +13162,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.9940378254022288</v>
+        <v>-0.9944714406140103</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.336416664082519</v>
+        <v>-1.321255741354049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3423788386802902</v>
+        <v>0.3267843007400388</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3235311703028034</v>
+        <v>0.3048080168202336</v>
       </c>
       <c r="G4" t="n">
-        <v>1.058256112880396</v>
+        <v>1.07209877269326</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2899386953750285</v>
+        <v>0.2836756700669727</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.4864923250704751</v>
+        <v>0.4798751268723349</v>
       </c>
     </row>
     <row r="5">
@@ -13184,28 +13198,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.237620791301308</v>
+        <v>-3.237884736484497</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.453865983546235</v>
+        <v>-4.443389596115766</v>
       </c>
       <c r="E5" t="n">
-        <v>1.216245192244927</v>
+        <v>1.20550485963127</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5469897702912414</v>
+        <v>0.5153490447879158</v>
       </c>
       <c r="G5" t="n">
-        <v>2.223524567191347</v>
+        <v>2.339200725844708</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02618044869193692</v>
+        <v>0.01932504754626999</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.1570826921516215</v>
+        <v>0.1159502852776199</v>
       </c>
     </row>
     <row r="6">
@@ -13220,28 +13234,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7511920210280646</v>
+        <v>0.7514542788665096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9522256956063576</v>
+        <v>0.9424675585028885</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.201033674578293</v>
+        <v>-0.1910132796363789</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1928863399763034</v>
+        <v>0.1817437290314243</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.042239044003793</v>
+        <v>-1.051003413731826</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2973008653208459</v>
+        <v>0.293257021977538</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.4864923250704751</v>
+        <v>0.4798751268723349</v>
       </c>
     </row>
     <row r="7">
@@ -13256,28 +13270,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.17647306844788</v>
+        <v>-1.176819984067105</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9250206549664436</v>
+        <v>-0.9124782233529323</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2514524134814363</v>
+        <v>-0.2643417607141731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3312321192030536</v>
+        <v>0.3120897106172235</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.7591426039432175</v>
+        <v>-0.8470056900991106</v>
       </c>
       <c r="H7" t="n">
-        <v>0.447767255872237</v>
+        <v>0.3969919498701793</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.6441937655782877</v>
+        <v>0.5677875645967438</v>
       </c>
     </row>
     <row r="8">
@@ -13292,28 +13306,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2439808619379262</v>
+        <v>0.2438260836991519</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6596763412355882</v>
+        <v>0.6649559725031529</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4156954792976619</v>
+        <v>-0.421129888804001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3110616324390776</v>
+        <v>0.2930518036761565</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.336376576044225</v>
+        <v>-1.43704929818272</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1814262185905872</v>
+        <v>0.1507039862842183</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.4082089918288211</v>
+        <v>0.3390839691394911</v>
       </c>
     </row>
     <row r="9">
@@ -13328,28 +13342,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.263246205871799</v>
+        <v>-1.263366794421891</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6541131534781934</v>
+        <v>-0.6518807687528384</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6091330523936052</v>
+        <v>-0.611486025669053</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4244619146533711</v>
+        <v>0.3999016654988793</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.435071160367927</v>
+        <v>-1.529090970166931</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1512668207217777</v>
+        <v>0.126241893577718</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.3889718247131427</v>
+        <v>0.324622012056989</v>
       </c>
     </row>
     <row r="10">
@@ -13364,28 +13378,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.28492493008623</v>
+        <v>-2.28514805746853</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.060136736562351</v>
+        <v>-3.052206659088435</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7752118064761211</v>
+        <v>0.767058601619905</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4763520941966596</v>
+        <v>0.4487118960348552</v>
       </c>
       <c r="G10" t="n">
-        <v>1.627392460158008</v>
+        <v>1.709467942343836</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1036537718512311</v>
+        <v>0.08736430499384995</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.3109613155536933</v>
+        <v>0.2620929149815499</v>
       </c>
     </row>
     <row r="11">
@@ -13400,28 +13414,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.803324168872448</v>
+        <v>-4.80367315862025</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.921096339075649</v>
+        <v>-5.907631902421051</v>
       </c>
       <c r="E11" t="n">
-        <v>1.117772170203201</v>
+        <v>1.103958743800801</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4343712035364071</v>
+        <v>0.4092939802438088</v>
       </c>
       <c r="G11" t="n">
-        <v>2.573310940280862</v>
+        <v>2.697226925114299</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01007306642442512</v>
+        <v>0.00699196050614849</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.0906575978198261</v>
+        <v>0.06292764455533642</v>
       </c>
     </row>
     <row r="12">
@@ -13436,28 +13450,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.8018941254087205</v>
+        <v>-0.8024034453454394</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5108765321082187</v>
+        <v>-0.4930603236484513</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2910175933005018</v>
+        <v>-0.3093431216969881</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3985299640630899</v>
+        <v>0.3755200565296321</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7302276354167231</v>
+        <v>-0.8237725690493924</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4652510529176522</v>
+        <v>0.4100687966532039</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.6441937655782877</v>
+        <v>0.5677875645967438</v>
       </c>
     </row>
     <row r="13">
@@ -13472,28 +13486,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.09853405852874522</v>
+        <v>0.09871784877983175</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01126936095069243</v>
+        <v>-0.01736280156531303</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1098034194794377</v>
+        <v>0.1160806503451448</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3077775425952434</v>
+        <v>0.2899253977255573</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3567622853621895</v>
+        <v>0.4003811023656039</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7212697726253108</v>
+        <v>0.6888758409366333</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.8607907595962507</v>
+        <v>0.8266510091239601</v>
       </c>
     </row>
     <row r="14">
@@ -13508,28 +13522,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.4623910160624797</v>
+        <v>-0.4622020093713451</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03076731411248092</v>
+        <v>0.02316003841698463</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4931583301749606</v>
+        <v>-0.4853620477883297</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2959249186280146</v>
+        <v>0.2787785556722441</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.666498152508994</v>
+        <v>-1.741030785592285</v>
       </c>
       <c r="H14" t="n">
-        <v>0.095614235866505</v>
+        <v>0.08167818235921451</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.3109613155536933</v>
+        <v>0.2620929149815499</v>
       </c>
     </row>
     <row r="15">
@@ -13544,28 +13558,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9434646119161302</v>
+        <v>0.943663638675219</v>
       </c>
       <c r="D15" t="n">
-        <v>1.068058293053437</v>
+        <v>1.061005324054771</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1245936811373066</v>
+        <v>-0.1173416853795516</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4170802365454517</v>
+        <v>0.3929035809127617</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2987283266387256</v>
+        <v>-0.2986526239006346</v>
       </c>
       <c r="H15" t="n">
-        <v>0.765147341863334</v>
+        <v>0.7652051087072957</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>0.8607907595962507</v>
+        <v>0.8608557472957077</v>
       </c>
     </row>
     <row r="16">
@@ -13580,28 +13594,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.7695375455174691</v>
+        <v>-0.7696468330306908</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.8120567896601054</v>
+        <v>-0.808846236697491</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0425192441426363</v>
+        <v>0.03919940366680019</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4197627473756605</v>
+        <v>0.3953988840800001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.101293514987847</v>
+        <v>0.09913888289798276</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9193174640075192</v>
+        <v>0.9210280000518664</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>0.9193174640075193</v>
+        <v>0.9210280000518664</v>
       </c>
     </row>
     <row r="17">
@@ -13616,28 +13630,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.6966302394039741</v>
+        <v>-0.696737196778114</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7439923080509756</v>
+        <v>-0.7394192832154663</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04736206864700154</v>
+        <v>0.04268208643735238</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3733501474014762</v>
+        <v>0.3517108974216702</v>
       </c>
       <c r="G17" t="n">
-        <v>0.126856970531932</v>
+        <v>0.1213555984481776</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8990536039540118</v>
+        <v>0.9034093841847077</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.9193174640075193</v>
+        <v>0.9210280000518664</v>
       </c>
     </row>
     <row r="18">
@@ -13652,28 +13666,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.024987268250971</v>
+        <v>1.024887867412821</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7595628871401143</v>
+        <v>0.7639249932841647</v>
       </c>
       <c r="E18" t="n">
-        <v>0.265424381110857</v>
+        <v>0.2609628741286558</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2503738307214184</v>
+        <v>0.2358699463658988</v>
       </c>
       <c r="G18" t="n">
-        <v>1.060112314238563</v>
+        <v>1.106384590955183</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2890935062122526</v>
+        <v>0.2685600921261002</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.4864923250704751</v>
+        <v>0.4798751268723349</v>
       </c>
     </row>
     <row r="19">
@@ -13688,28 +13702,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.002851919953865</v>
+        <v>1.002890727405795</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8624718530104902</v>
+        <v>0.8613201229253896</v>
       </c>
       <c r="E19" t="n">
-        <v>0.140380066943375</v>
+        <v>0.1415706044804051</v>
       </c>
       <c r="F19" t="n">
-        <v>0.339890778553991</v>
+        <v>0.3201507720633817</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4130152266578068</v>
+        <v>0.4421997909546748</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6795954578354683</v>
+        <v>0.6583446373349979</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.8607907595962507</v>
+        <v>0.8266510091239601</v>
       </c>
     </row>
     <row r="20">
@@ -13725,27 +13739,27 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1.605628282855068</v>
+        <v>1.588461961595828</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5824303182449408</v>
+        <v>-0.5809150738516418</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3887907641830901</v>
+        <v>0.3130014273640446</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.49805595168578</v>
+        <v>-1.855950238769976</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1341187140944774</v>
+        <v>0.06346065116004072</v>
       </c>
       <c r="I20" t="n">
-        <v>1.023197964610127</v>
+        <v>1.007546887744186</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.5331298768223711</v>
+        <v>0.2537894748376478</v>
       </c>
     </row>
     <row r="21">
@@ -13761,27 +13775,27 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>3.147073223978718</v>
+        <v>3.137846655080066</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.6304662705254072</v>
+        <v>-0.6252912736719458</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4756967435651778</v>
+        <v>0.3832190799207711</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.325353345495466</v>
+        <v>-1.631680953362818</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1850539833650328</v>
+        <v>0.1027467144886177</v>
       </c>
       <c r="I21" t="n">
-        <v>2.51660695345331</v>
+        <v>2.512555381408121</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.5551619500950983</v>
+        <v>0.3082401434658531</v>
       </c>
     </row>
     <row r="22">
@@ -13797,27 +13811,27 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>-1.336416664082519</v>
+        <v>-1.321255741354049</v>
       </c>
       <c r="E22" t="n">
-        <v>0.269607332835111</v>
+        <v>0.2725838019114275</v>
       </c>
       <c r="F22" t="n">
-        <v>0.32348123353337</v>
+        <v>0.2604386729575497</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8334558697275973</v>
+        <v>1.046633354470584</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4045876765253746</v>
+        <v>0.2952687122403648</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.066809331247408</v>
+        <v>-1.048671939442622</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.5895595498114058</v>
+        <v>0.4543414104746699</v>
       </c>
     </row>
     <row r="23">
@@ -13833,27 +13847,27 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>-4.453865983546235</v>
+        <v>-4.443389596115766</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3784344912719684</v>
+        <v>0.3777374301701117</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5472046147160781</v>
+        <v>0.4406653690511749</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6915776678314792</v>
+        <v>0.8571979027610966</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4892025901588156</v>
+        <v>0.3913355213465302</v>
       </c>
       <c r="I23" t="n">
-        <v>-4.075431492274267</v>
+        <v>-4.065652165945655</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.5895595498114058</v>
+        <v>0.4737254925835242</v>
       </c>
     </row>
     <row r="24">
@@ -13869,27 +13883,27 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>0.9522256956063576</v>
+        <v>0.9424675585028885</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.355126118150785</v>
+        <v>-0.3539161991811058</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1928487044624069</v>
+        <v>0.1553387547255826</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.841475259793678</v>
+        <v>-2.278350948585399</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06555194285456604</v>
+        <v>0.02270567639680151</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5970995774555726</v>
+        <v>0.5885513593217827</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.5331298768223711</v>
+        <v>0.2043510875712136</v>
       </c>
     </row>
     <row r="25">
@@ -13905,27 +13919,27 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>-0.9250206549664436</v>
+        <v>-0.9124782233529323</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2279249684625664</v>
+        <v>0.2269639662367667</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3311692124667311</v>
+        <v>0.266703729909827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6882432299936802</v>
+        <v>0.8509965957862818</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4912996248428381</v>
+        <v>0.3947712438196035</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6970956865038772</v>
+        <v>-0.6855142571161655</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.5895595498114058</v>
+        <v>0.4737254925835242</v>
       </c>
     </row>
     <row r="26">
@@ -13941,27 +13955,27 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>0.6596763412355882</v>
+        <v>0.6649559725031529</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.1456104839562747</v>
+        <v>-0.1470167214895421</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3110908190733045</v>
+        <v>0.2504203083203559</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4680642276426792</v>
+        <v>-0.5870798677456608</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6397386598534206</v>
+        <v>0.5571500679099971</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5140658572793134</v>
+        <v>0.5179392510136107</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.6973088423256021</v>
+        <v>0.6222177076736668</v>
       </c>
     </row>
     <row r="27">
@@ -13977,27 +13991,27 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>-0.6541131534781934</v>
+        <v>-0.6518807687528384</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.6797617849423578</v>
+        <v>-0.6736792619292905</v>
       </c>
       <c r="F27" t="n">
-        <v>0.424415125753921</v>
+        <v>0.3416612755740762</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.601643635426153</v>
+        <v>-1.971775293519411</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1092344357670555</v>
+        <v>0.0486352639492784</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.333874938420551</v>
+        <v>-1.325560030682129</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.5331298768223711</v>
+        <v>0.2537894748376478</v>
       </c>
     </row>
     <row r="28">
@@ -14013,27 +14027,27 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>-3.060136736562351</v>
+        <v>-3.052206659088435</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4675643971581276</v>
+        <v>0.471264914220471</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4763812610862143</v>
+        <v>0.3832430287965157</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9814920009490233</v>
+        <v>1.229676416294817</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3263501771038257</v>
+        <v>0.218818301627016</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.592572339404223</v>
+        <v>-2.580941744867964</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.5895595498114058</v>
+        <v>0.4543414104746699</v>
       </c>
     </row>
     <row r="29">
@@ -14049,27 +14063,27 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>-5.921096339075649</v>
+        <v>-5.907631902421051</v>
       </c>
       <c r="E29" t="n">
-        <v>0.473888727004308</v>
+        <v>0.4734002894750473</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4345777140551582</v>
+        <v>0.3501867635303564</v>
       </c>
       <c r="G29" t="n">
-        <v>1.090457958790221</v>
+        <v>1.351850894369998</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2755114628631138</v>
+        <v>0.1764230191482832</v>
       </c>
       <c r="I29" t="n">
-        <v>-5.447207612071341</v>
+        <v>-5.434231612946004</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.5895595498114058</v>
+        <v>0.4536591920955853</v>
       </c>
     </row>
     <row r="30">
@@ -14085,27 +14099,27 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>-0.5108765321082187</v>
+        <v>-0.4930603236484513</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2893537713432573</v>
+        <v>0.2896446741157221</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3984223396075303</v>
+        <v>0.3209917988276906</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7262488635257954</v>
+        <v>0.9023429108579947</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4676862216899083</v>
+        <v>0.3668747374097845</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2215227607649613</v>
+        <v>-0.2034156495327291</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.5895595498114058</v>
+        <v>0.4737254925835242</v>
       </c>
     </row>
     <row r="31">
@@ -14121,27 +14135,27 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>-0.01126936095069243</v>
+        <v>-0.01736280156531303</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1360132676795507</v>
+        <v>0.1342901593858331</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3077995569700993</v>
+        <v>0.2476560850092157</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4418890950280462</v>
+        <v>0.5422445379480012</v>
       </c>
       <c r="H31" t="n">
-        <v>0.658569462196402</v>
+        <v>0.587650057247352</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1247439067288583</v>
+        <v>0.11692735782052</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.6973088423256021</v>
+        <v>0.6222177076736668</v>
       </c>
     </row>
     <row r="32">
@@ -14157,27 +14171,27 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>0.03076731411248092</v>
+        <v>0.02316003841698463</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2695403781680605</v>
+        <v>-0.2670896757128874</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2960207780834386</v>
+        <v>0.2382795734930509</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.9105454688457238</v>
+        <v>-1.120908820665976</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3625349139577632</v>
+        <v>0.2623266758879226</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.2387730640555796</v>
+        <v>-0.2439296372959028</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.5895595498114058</v>
+        <v>0.4543414104746699</v>
       </c>
     </row>
     <row r="33">
@@ -14193,27 +14207,27 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>1.068058293053437</v>
+        <v>1.061005324054771</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.041149003606981</v>
+        <v>-1.041880219906977</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4171533928339249</v>
+        <v>0.3357180204744255</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.495842108664037</v>
+        <v>-3.103438470281181</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01256585197334864</v>
+        <v>0.001912860059535908</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02690928944645616</v>
+        <v>0.0191251041477933</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.2261853355202755</v>
+        <v>0.03443148107164636</v>
       </c>
     </row>
     <row r="34">
@@ -14229,27 +14243,27 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>-0.8120567896601054</v>
+        <v>-0.808846236697491</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6070823230382606</v>
+        <v>0.6106874952770905</v>
       </c>
       <c r="F34" t="n">
-        <v>0.419747052567243</v>
+        <v>0.3376382528170819</v>
       </c>
       <c r="G34" t="n">
-        <v>1.44630514812491</v>
+        <v>1.808703516801857</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1480916324506586</v>
+        <v>0.07049707634379106</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.2049744666218448</v>
+        <v>-0.1981587414204005</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.5331298768223711</v>
+        <v>0.2537894748376478</v>
       </c>
     </row>
     <row r="35">
@@ -14265,27 +14279,27 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>-0.7439923080509756</v>
+        <v>-0.7394192832154663</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.02333526106881278</v>
+        <v>-0.02655198720438856</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3733524651482829</v>
+        <v>0.3004472903180383</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.06250196060589774</v>
+        <v>-0.08837485995058225</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9501631006567899</v>
+        <v>0.929578741954184</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.7673275691197884</v>
+        <v>-0.7659712704198549</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.9501631006567899</v>
+        <v>0.929578741954184</v>
       </c>
     </row>
     <row r="36">
@@ -14301,27 +14315,27 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>0.7595628871401143</v>
+        <v>0.7639249932841647</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2105213602665068</v>
+        <v>0.2075818417242721</v>
       </c>
       <c r="F36" t="n">
-        <v>0.250350046557307</v>
+        <v>0.2014875349462388</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8409080132458331</v>
+        <v>1.030246569742686</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4003994689119089</v>
+        <v>0.3028942736497799</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9700842474066211</v>
+        <v>0.9715068350084368</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.5895595498114058</v>
+        <v>0.4543414104746699</v>
       </c>
     </row>
     <row r="37">
@@ -14337,27 +14351,27 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>0.8624718530104902</v>
+        <v>0.8613201229253896</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3266399540949254</v>
+        <v>0.326363115482838</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3399088159514355</v>
+        <v>0.2733896010496794</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9609634665715588</v>
+        <v>1.193765652496535</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3365705373679947</v>
+        <v>0.2325696509288662</v>
       </c>
       <c r="I37" t="n">
-        <v>1.189111807105416</v>
+        <v>1.187683238408228</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.5895595498114058</v>
+        <v>0.4543414104746699</v>
       </c>
     </row>
     <row r="38">
@@ -14372,28 +14386,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.8460187630495561</v>
+        <v>0.8464588336842271</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>0.1771792015605707</v>
+        <v>0.1610880540599589</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3884730382356571</v>
+        <v>0.3416237082448423</v>
       </c>
       <c r="G38" t="n">
-        <v>0.456091373458689</v>
+        <v>0.4715365186086756</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6483242732261751</v>
+        <v>0.6372576475656917</v>
       </c>
       <c r="I38" t="n">
-        <v>1.023197964610127</v>
+        <v>1.007546887744186</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.8976797629285501</v>
+        <v>0.8823567427832655</v>
       </c>
     </row>
     <row r="39">
@@ -14408,28 +14422,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.866844075054269</v>
+        <v>1.867038552186841</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>0.649762878399041</v>
+        <v>0.6455168292212796</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4749296718857143</v>
+        <v>0.4176912550159694</v>
       </c>
       <c r="G39" t="n">
-        <v>1.368124412650718</v>
+        <v>1.545440134236471</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1712731363639127</v>
+        <v>0.1222398388585149</v>
       </c>
       <c r="I39" t="n">
-        <v>2.51660695345331</v>
+        <v>2.512555381408121</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.4589479476209036</v>
+        <v>0.3143310142076097</v>
       </c>
     </row>
     <row r="40">
@@ -14444,28 +14458,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.9940378254022288</v>
+        <v>-0.9944714406140103</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>-0.07277150584517922</v>
+        <v>-0.05420049882861133</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3231445844091874</v>
+        <v>0.2841673012520541</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.2251979743935026</v>
+        <v>-0.1907344673007818</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8218252651819773</v>
+        <v>0.8487336333898814</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.066809331247408</v>
+        <v>-1.048671939442622</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.9187974810231934</v>
+        <v>0.9186133134031622</v>
       </c>
     </row>
     <row r="41">
@@ -14480,28 +14494,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-3.237620791301308</v>
+        <v>-3.237884736484497</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>-0.8378107009729585</v>
+        <v>-0.8277674294611579</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5464355604474394</v>
+        <v>0.4805130005048743</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.533228731100391</v>
+        <v>-1.722674368001332</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1252195075211948</v>
+        <v>0.08494742806982067</v>
       </c>
       <c r="I41" t="n">
-        <v>-4.075431492274267</v>
+        <v>-4.065652165945655</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.4589479476209036</v>
+        <v>0.3143310142076097</v>
       </c>
     </row>
     <row r="42">
@@ -14516,28 +14530,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7511920210280646</v>
+        <v>0.7514542788665096</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>-0.154092443572492</v>
+        <v>-0.1629029195447269</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1926208394476038</v>
+        <v>0.1694249274347298</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.7999780502171872</v>
+        <v>-0.9615050276913034</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4237235146117817</v>
+        <v>0.3362982987540857</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5970995774555726</v>
+        <v>0.5885513593217827</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.8094791901677446</v>
+        <v>0.6725965975081714</v>
       </c>
     </row>
     <row r="43">
@@ -14552,28 +14566,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1.17647306844788</v>
+        <v>-1.176819984067105</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>0.4793773819440027</v>
+        <v>0.4913057269509399</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3308471598573401</v>
+        <v>0.2909864288950633</v>
       </c>
       <c r="G43" t="n">
-        <v>1.44893908761589</v>
+        <v>1.688414572516427</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1473545940640869</v>
+        <v>0.0913316750515491</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.6970956865038772</v>
+        <v>-0.6855142571161655</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.4589479476209036</v>
+        <v>0.3143310142076097</v>
       </c>
     </row>
     <row r="44">
@@ -14588,28 +14602,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2439808619379262</v>
+        <v>0.2438260836991519</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>0.2700849953413872</v>
+        <v>0.2741131673144588</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3109886532329995</v>
+        <v>0.2734965250681911</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8684721855077897</v>
+        <v>1.002254662087988</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3851358926272826</v>
+        <v>0.3162206134823716</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5140658572793134</v>
+        <v>0.5179392510136107</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.8094791901677446</v>
+        <v>0.6725965975081714</v>
       </c>
     </row>
     <row r="45">
@@ -14624,28 +14638,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-1.263246205871799</v>
+        <v>-1.263366794421891</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>-0.07062873254875268</v>
+        <v>-0.06219323626023754</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4241632249358476</v>
+        <v>0.3730084052485793</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1665130977807774</v>
+        <v>-0.1667341416041038</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8677531765219049</v>
+        <v>0.8675792404363198</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.333874938420551</v>
+        <v>-1.325560030682129</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.9187974810231934</v>
+        <v>0.9186133134031622</v>
       </c>
     </row>
     <row r="46">
@@ -14660,28 +14674,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-2.28492493008623</v>
+        <v>-2.28514805746853</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>-0.3076474093179935</v>
+        <v>-0.295793687399434</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4762483709615842</v>
+        <v>0.4187013712874534</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.6459810218286487</v>
+        <v>-0.7064550242333959</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5182916461521156</v>
+        <v>0.4799052127835821</v>
       </c>
       <c r="I46" t="n">
-        <v>-2.592572339404223</v>
+        <v>-2.580941744867964</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.848113602794371</v>
+        <v>0.7852994391004071</v>
       </c>
     </row>
     <row r="47">
@@ -14696,28 +14710,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-4.803324168872448</v>
+        <v>-4.80367315862025</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>-0.6438834431988933</v>
+        <v>-0.6305584543257536</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4335622757269417</v>
+        <v>0.381289450230991</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.485100247984703</v>
+        <v>-1.653752690885498</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1375172704179221</v>
+        <v>0.09817777193525611</v>
       </c>
       <c r="I47" t="n">
-        <v>-5.447207612071341</v>
+        <v>-5.434231612946004</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.4589479476209036</v>
+        <v>0.3143310142076097</v>
       </c>
     </row>
     <row r="48">
@@ -14732,28 +14746,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.8018941254087205</v>
+        <v>-0.8024034453454394</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>0.5803713646437592</v>
+        <v>0.5989877958127102</v>
       </c>
       <c r="F48" t="n">
-        <v>0.397749033849248</v>
+        <v>0.3498460911031315</v>
       </c>
       <c r="G48" t="n">
-        <v>1.459139596210125</v>
+        <v>1.712146601163922</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1445266899111254</v>
+        <v>0.08686965522678664</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.2215227607649613</v>
+        <v>-0.2034156495327291</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.4589479476209036</v>
+        <v>0.3143310142076097</v>
       </c>
     </row>
     <row r="49">
@@ -14768,28 +14782,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.09853405852874522</v>
+        <v>0.09871784877983175</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>0.02620984820011307</v>
+        <v>0.01820950904068827</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3076178985802998</v>
+        <v>0.2704457633326559</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08520261116493948</v>
+        <v>0.06733146349307038</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9321003147228475</v>
+        <v>0.9463178294695213</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1247439067288583</v>
+        <v>0.11692735782052</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.9321003147228475</v>
+        <v>0.9463178294695214</v>
       </c>
     </row>
     <row r="50">
@@ -14804,28 +14818,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.4623910160624797</v>
+        <v>-0.4622020093713451</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>0.2236179520069001</v>
+        <v>0.2182723720754423</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2958310565459884</v>
+        <v>0.2601389871399018</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7558974862807805</v>
+        <v>0.8390605901685017</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4497106612043026</v>
+        <v>0.4014353097789698</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.2387730640555796</v>
+        <v>-0.2439296372959028</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.8094791901677446</v>
+        <v>0.7225835576021457</v>
       </c>
     </row>
     <row r="51">
@@ -14840,28 +14854,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9434646119161302</v>
+        <v>0.943663638675219</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>-0.916555322469674</v>
+        <v>-0.9245385345274256</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4170311068156647</v>
+        <v>0.3667142098566825</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.197810445048666</v>
+        <v>-2.521141831097163</v>
       </c>
       <c r="H51" t="n">
-        <v>0.02796261679995458</v>
+        <v>0.01169746927733713</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02690928944645616</v>
+        <v>0.0191251041477933</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.4589479476209036</v>
+        <v>0.2105544469920683</v>
       </c>
     </row>
     <row r="52">
@@ -14876,28 +14890,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.7695375455174691</v>
+        <v>-0.7696468330306908</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>0.5645630788956243</v>
+        <v>0.5714880916102903</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4196089177858059</v>
+        <v>0.3688754301084863</v>
       </c>
       <c r="G52" t="n">
-        <v>1.345450620722536</v>
+        <v>1.549271230784375</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1784797574081292</v>
+        <v>0.1213165325493018</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.2049744666218448</v>
+        <v>-0.1981587414204005</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.4589479476209036</v>
+        <v>0.3143310142076097</v>
       </c>
     </row>
     <row r="53">
@@ -14912,28 +14926,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.6966302394039741</v>
+        <v>-0.696737196778114</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>-0.07069732971581433</v>
+        <v>-0.06923407364174095</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3730663253179879</v>
+        <v>0.3279957672125791</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1895033802784385</v>
+        <v>-0.2110822167923566</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8496983060196139</v>
+        <v>0.8328231165469295</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.7673275691197884</v>
+        <v>-0.7659712704198549</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.9187974810231934</v>
+        <v>0.9186133134031622</v>
       </c>
     </row>
     <row r="54">
@@ -14948,28 +14962,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.024987268250971</v>
+        <v>1.024887867412821</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>-0.05490302084435017</v>
+        <v>-0.05338103240438374</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2501679415065968</v>
+        <v>0.2199632867005199</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2194646544785292</v>
+        <v>-0.2426815547499162</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8262881103535318</v>
+        <v>0.8082520975399277</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9700842474066211</v>
+        <v>0.9715068350084368</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.9187974810231934</v>
+        <v>0.9186133134031622</v>
       </c>
     </row>
     <row r="55">
@@ -14984,28 +14998,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.002851919953865</v>
+        <v>1.002890727405795</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>0.1862598871515504</v>
+        <v>0.1847925110024329</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3397792316088541</v>
+        <v>0.2986774151404221</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5481791405248935</v>
+        <v>0.6187026592404162</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5835689036027504</v>
+        <v>0.5361122578390489</v>
       </c>
       <c r="I55" t="n">
-        <v>1.189111807105416</v>
+        <v>1.187683238408228</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.8753533554041256</v>
+        <v>0.8041683867585734</v>
       </c>
     </row>
     <row r="56">
@@ -15022,26 +15036,26 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>-0.5691552415755778</v>
+        <v>-0.5569559242462847</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3172736048202738</v>
+        <v>0.2847377105829834</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.793894080467197</v>
+        <v>-1.956031475795569</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07283007646815282</v>
+        <v>0.05046144634094767</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>0.7743185939287502</v>
+        <v>0.7713781942642743</v>
       </c>
       <c r="K56" t="n">
-        <v>1.343473835504328</v>
+        <v>1.328334118510559</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3447711216871057</v>
+        <v>0.2110909322622814</v>
       </c>
     </row>
     <row r="57">
@@ -15058,26 +15072,26 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>0.1231751799962755</v>
+        <v>0.1289974266664009</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3879882053986501</v>
+        <v>0.3482589598689827</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3174714547565059</v>
+        <v>0.3704066270539905</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7508858958580011</v>
+        <v>0.7110795367466888</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>2.447247756609819</v>
+        <v>2.445876132659341</v>
       </c>
       <c r="K57" t="n">
-        <v>2.324072576613543</v>
+        <v>2.316878705992941</v>
       </c>
       <c r="L57" t="n">
-        <v>0.7950556544378836</v>
+        <v>0.7529077447906116</v>
       </c>
     </row>
     <row r="58">
@@ -15094,26 +15108,26 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>0.258628215992573</v>
+        <v>0.2481957948007336</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2639539799683617</v>
+        <v>0.2368874812818648</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9798231344099184</v>
+        <v>1.047737066803515</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3271734304338849</v>
+        <v>0.2947597647522517</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>-0.9706939314267033</v>
+        <v>-0.9671594087713795</v>
       </c>
       <c r="K58" t="n">
-        <v>-1.229322147419276</v>
+        <v>-1.215355203572113</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5889121747809929</v>
+        <v>0.5305675765540532</v>
       </c>
     </row>
     <row r="59">
@@ -15130,26 +15144,26 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>-0.1827530024228317</v>
+        <v>-0.1899416756800649</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4463149821133983</v>
+        <v>0.4005482854883762</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4094709112328171</v>
+        <v>-0.4742041910090187</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6821941097415355</v>
+        <v>0.6353543050431418</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>-3.916730102174637</v>
+        <v>-3.914605015266831</v>
       </c>
       <c r="K59" t="n">
-        <v>-3.733977099751805</v>
+        <v>-3.724663339586766</v>
       </c>
       <c r="L59" t="n">
-        <v>0.7950556544378836</v>
+        <v>0.7529077447906116</v>
       </c>
     </row>
     <row r="60">
@@ -15166,26 +15180,26 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>-0.1212027834076181</v>
+        <v>-0.1155935877490619</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1573847929618488</v>
+        <v>0.1412812496668822</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.7701047930151582</v>
+        <v>-0.8181806716858212</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4412377330759837</v>
+        <v>0.4132540300541176</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>0.7151618000126166</v>
+        <v>0.7129058351749057</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8363645834202348</v>
+        <v>0.8284994229239676</v>
       </c>
       <c r="L60" t="n">
-        <v>0.7088355401123093</v>
+        <v>0.6198810450811765</v>
       </c>
     </row>
     <row r="61">
@@ -15202,26 +15216,26 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>-0.3110702416557635</v>
+        <v>-0.3185292201552448</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2703239340423808</v>
+        <v>0.2426552839441372</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.150731409550271</v>
+        <v>-1.312681986470053</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2498427504510505</v>
+        <v>0.1892901300145307</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>-1.138446763542656</v>
+        <v>-1.135324112770595</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.8273765218868924</v>
+        <v>-0.8167948926153501</v>
       </c>
       <c r="L61" t="n">
-        <v>0.551036440312187</v>
+        <v>0.4423825805655535</v>
       </c>
     </row>
     <row r="62">
@@ -15238,26 +15252,26 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>-0.4942828923391107</v>
+        <v>-0.4960618428510905</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2540660947777564</v>
+        <v>0.2280432968260867</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.945489392323219</v>
+        <v>-2.175296751780446</v>
       </c>
       <c r="H62" t="n">
-        <v>0.05171610518634298</v>
+        <v>0.02960788579083081</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>0.1319314333394226</v>
+        <v>0.1337915753342226</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6262143256785333</v>
+        <v>0.6298534181853132</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3447711216871057</v>
+        <v>0.2110909322622814</v>
       </c>
     </row>
     <row r="63">
@@ -15274,26 +15288,26 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>-0.4697381058035424</v>
+        <v>-0.4715078745172695</v>
       </c>
       <c r="F63" t="n">
-        <v>0.346484716004228</v>
+        <v>0.310975160291059</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.355725329592346</v>
+        <v>-1.51622359186489</v>
       </c>
       <c r="H63" t="n">
-        <v>0.175186577092691</v>
+        <v>0.1294628245516563</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>-1.434516208721903</v>
+        <v>-1.432908127156543</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.9647781029183606</v>
+        <v>-0.9614002526392732</v>
       </c>
       <c r="L63" t="n">
-        <v>0.5255597312780731</v>
+        <v>0.3883884736549688</v>
       </c>
     </row>
     <row r="64">
@@ -15310,26 +15324,26 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>0.4355666145293537</v>
+        <v>0.428214028396035</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3889235009994895</v>
+        <v>0.348965371832431</v>
       </c>
       <c r="G64" t="n">
-        <v>1.119928760823135</v>
+        <v>1.227096047230893</v>
       </c>
       <c r="H64" t="n">
-        <v>0.262744121037821</v>
+        <v>0.2197864933582051</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>-2.30663223145864</v>
+        <v>-2.305294546505251</v>
       </c>
       <c r="K64" t="n">
-        <v>-2.742198845987994</v>
+        <v>-2.733508574901286</v>
       </c>
       <c r="L64" t="n">
-        <v>0.551036440312187</v>
+        <v>0.4423825805655535</v>
       </c>
     </row>
     <row r="65">
@@ -15346,26 +15360,26 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>0.04815894832683743</v>
+        <v>0.03912623839263052</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3541961029678729</v>
+        <v>0.317910739039442</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1359669062513815</v>
+        <v>0.123073031476852</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8918474429469513</v>
+        <v>0.9020492666647322</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>-5.238667827609636</v>
+        <v>-5.235815919152746</v>
       </c>
       <c r="K65" t="n">
-        <v>-5.286826775936474</v>
+        <v>-5.274942157545377</v>
       </c>
       <c r="L65" t="n">
-        <v>0.8918474429469513</v>
+        <v>0.9020492666647323</v>
       </c>
     </row>
     <row r="66">
@@ -15382,26 +15396,26 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>-0.5413361404966608</v>
+        <v>-0.5516262707701221</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3249868242707286</v>
+        <v>0.2917253038378567</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.66571719241671</v>
+        <v>-1.890909919410763</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09576975602419602</v>
+        <v>0.05863637007285594</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>-0.8204241721927537</v>
+        <v>-0.8159089673271822</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.2790880316960929</v>
+        <v>-0.2642826965570601</v>
       </c>
       <c r="L66" t="n">
-        <v>0.3447711216871057</v>
+        <v>0.2110909322622814</v>
       </c>
     </row>
     <row r="67">
@@ -15418,26 +15432,26 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>0.180461249794483</v>
+        <v>0.1848267403536239</v>
       </c>
       <c r="F67" t="n">
-        <v>0.251225133100695</v>
+        <v>0.225414424268625</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7183248250968237</v>
+        <v>0.819941940065765</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4725570267415395</v>
+        <v>0.4122492063439698</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>0.2010107854762812</v>
+        <v>0.199358482225758</v>
       </c>
       <c r="K67" t="n">
-        <v>0.02054953568179816</v>
+        <v>0.01453174187213413</v>
       </c>
       <c r="L67" t="n">
-        <v>0.7088355401123093</v>
+        <v>0.6198810450811765</v>
       </c>
     </row>
     <row r="68">
@@ -15454,26 +15468,26 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>-0.4180863500778416</v>
+        <v>-0.4133055552119463</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2415813868607427</v>
+        <v>0.2167954590880175</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.730623188775895</v>
+        <v>-1.906430867835415</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08351899305619324</v>
+        <v>0.0565943270573158</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>-0.4986142973271362</v>
+        <v>-0.4997531614782848</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.08052794724929463</v>
+        <v>-0.08644760626633848</v>
       </c>
       <c r="L68" t="n">
-        <v>0.3447711216871057</v>
+        <v>0.2110909322622814</v>
       </c>
     </row>
     <row r="69">
@@ -15490,26 +15504,26 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>0.3713676593010545</v>
+        <v>0.3738918540867622</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3405659825346314</v>
+        <v>0.305625375481301</v>
       </c>
       <c r="G69" t="n">
-        <v>1.090442611259012</v>
+        <v>1.223366526741946</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2755182201560935</v>
+        <v>0.2211912902827767</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>0.9045936899308311</v>
+        <v>0.9019832097338782</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5332260306297766</v>
+        <v>0.5280913556471161</v>
       </c>
       <c r="L69" t="n">
-        <v>0.551036440312187</v>
+        <v>0.4423825805655535</v>
       </c>
     </row>
     <row r="70">
@@ -15526,26 +15540,26 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>-0.167374222355513</v>
+        <v>-0.168669891868934</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3426536666054353</v>
+        <v>0.3074248616627313</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4884647055250804</v>
+        <v>-0.5486540384426613</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6252207195163066</v>
+        <v>0.5832428935772542</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>-0.6712426483714974</v>
+        <v>-0.6696553366894989</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.5038684260159844</v>
+        <v>-0.500985444820565</v>
       </c>
       <c r="L70" t="n">
-        <v>0.7950556544378836</v>
+        <v>0.7529077447906116</v>
       </c>
     </row>
     <row r="71">
@@ -15562,26 +15576,26 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>0.1429992816287238</v>
+        <v>0.1402437831777734</v>
       </c>
       <c r="F71" t="n">
-        <v>0.304681096548007</v>
+        <v>0.2733870387567771</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4693408394839229</v>
+        <v>0.5129862184232641</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6388260281475228</v>
+        <v>0.6079609610709692</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>-0.6266915797468638</v>
+        <v>-0.6261682753776276</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.7696908613755876</v>
+        <v>-0.7664120585554011</v>
       </c>
       <c r="L71" t="n">
-        <v>0.7950556544378836</v>
+        <v>0.7529077447906116</v>
       </c>
     </row>
     <row r="72">
@@ -15598,26 +15612,26 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>0.3754560807965327</v>
+        <v>0.3726543136338873</v>
       </c>
       <c r="F72" t="n">
-        <v>0.204320554550551</v>
+        <v>0.1833480334706912</v>
       </c>
       <c r="G72" t="n">
-        <v>1.837583505107613</v>
+        <v>2.032496921727047</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0661238012431463</v>
+        <v>0.04210337509611696</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>1.139927867728727</v>
+        <v>1.140290163539213</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7644717869321943</v>
+        <v>0.7676358499053253</v>
       </c>
       <c r="L72" t="n">
-        <v>0.3447711216871057</v>
+        <v>0.2110909322622814</v>
       </c>
     </row>
     <row r="73">
@@ -15634,26 +15648,26 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>-0.1009126968560018</v>
+        <v>-0.0997121656207165</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2774591996139563</v>
+        <v>0.2489176799743877</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3637028326918227</v>
+        <v>-0.4005828980527874</v>
       </c>
       <c r="H73" t="n">
-        <v>0.7160799278425782</v>
+        <v>0.6887272389552836</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>0.9945197787309145</v>
+        <v>0.9943436652878201</v>
       </c>
       <c r="K73" t="n">
-        <v>1.095432475586916</v>
+        <v>1.094055830908537</v>
       </c>
       <c r="L73" t="n">
-        <v>0.7950556544378836</v>
+        <v>0.7529077447906116</v>
       </c>
     </row>
   </sheetData>
@@ -20766,4 +20780,3401 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AL28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CCD</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>total_counts</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>g_statistic</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Naive_High_prop</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Naive_Low_prop</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CM_High_prop</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>CM_Low_prop</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>EM_High_prop</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>EM_Low_prop</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Naive_High_effect</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Naive_Low_effect</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>CM_High_effect</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>CM_Low_effect</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EM_High_effect</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>EM_Low_effect</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Naive_High_se</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Naive_Low_se</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>CM_High_se</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>CM_Low_se</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>EM_High_se</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>EM_Low_se</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>qvalue</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Naive_High_pip</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Naive_Low_pip</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>CM_High_pip</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>CM_Low_pip</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>EM_High_pip</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>EM_Low_pip</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>max_pip</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Naive_High_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Naive_Low_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>CM_High_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>CM_Low_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>EM_High_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>EM_Low_ci_excludes_zero</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>significant_pip</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ACKR4-1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>35529</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1866.295267042566</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1231388443243547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1415463424244983</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1720284837738186</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2052126431928847</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1004531509471136</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2576205353373301</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2946990016152504</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.190705630188007</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1537356311463987</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.522717716474959</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.1700416676474963</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.08462783042761968</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01625020241352982</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.01532662171320487</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.01418242758049261</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.01328567469211629</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.01777286080098834</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.01222485590679582</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.9999999999169052</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ADGRF5-1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54360</v>
+      </c>
+      <c r="C3" t="n">
+        <v>848.1468815762746</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.42899714741724e-181</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1364974245768948</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1386313465783665</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1774098601913171</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1351913171449595</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1114238410596027</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3008462104488595</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.1761567374634674</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.2169665894041244</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1935008278448114</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01125679796555779</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.05284939062072835</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1351669896369351</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0126294685726111</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.01254385809437165</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01138534373650319</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.01270003546401778</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.01379267977078875</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.009474351933717916</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.982621790844395e-181</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.4241055448104546</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.9987944736710627</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ADGRG1-1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>166110</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5598.601044364856</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.113587381855397</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2029799530431642</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.177111552585636</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.113460959605081</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1176088134368792</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2752513394738426</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.4085875256409333</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2684568723948673</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2024576754392364</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.2031202665286558</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0101729817356242</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.00747707539031961</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.007959273693195988</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.006383349287717804</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.006715588906980067</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.007997820714868976</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.007917925147415341</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.005709945213353787</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.4144393251671834</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.345155231696903</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CLN3-1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8838</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2536.080393861426</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3778004073319756</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1310251188051595</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1183525684544015</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.09153654673002942</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.07920343969223806</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.202081918986196</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.180223358727056</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.2782855913544426</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.2866617368903528</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.4296632673867735</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.4299706851009395</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.3997005974675572</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.02201647901165606</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.03157535078646882</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.03298247128385229</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.03693918524335569</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.03944360189015553</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.02653237294220922</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DCST1-1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5095</v>
+      </c>
+      <c r="C6" t="n">
+        <v>665.5327686555448</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.389711576936076e-141</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2645731108930324</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1950932286555447</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1244357212953876</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.06889106967615309</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1397448478900883</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2072620215897939</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6520551936104808</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1978701378010455</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.2290750387473608</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.7383275570754935</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2077879789067811</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.3672106146222992</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.03181330820961061</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.03539934380251726</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.04248448235610805</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.05535025194567182</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.04045978018459172</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0345948737930773</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.500888503090962e-141</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.9999998722085996</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.9999996764530817</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.9999987136650431</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GPR143-1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>289937</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14864.49258520757</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2194580201905931</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.148742657887748</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1138833608680506</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1278933009584841</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0971004045706481</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.292922255524476</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.4739871279069123</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1482281900794387</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3721072639338467</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.06061154181222927</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.2330738614553209</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.108119608998235</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.004917398182339752</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.005558795859109086</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.006168475431794611</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.005943086271814562</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.006649303967089779</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.004387291382252136</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MCOLN2-1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3083</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2175.234664172185</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2358092766785598</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06065520596821278</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03957184560493026</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.04184236133636069</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02789490755757379</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5942264028543627</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4975743807537574</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.126386586884004</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1.46797624657731</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1.265397053974552</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-1.527519234096405</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.358748624794051</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.04246557789362172</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.07547268116335866</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.09240086239708348</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.08996840574016879</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1093888002399585</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.03670780045591468</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MMD-1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>129343</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9621.012029076464</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2182878083854557</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1678405480002783</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.188189542534192</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0748320357499053</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1180736491344719</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2327764161956967</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4248834772686894</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.01446853378416568</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2782392234168443</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.6788008098963296</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.01474326214624266</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.2302678922896597</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.006995584840663464</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.007666824562725997</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.007371390274493259</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.01075490903880816</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.008879640958272322</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.006757232114284817</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.6404378931481054</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.5797516012516161</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>OR1E3-1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>26165</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1987.049403943573</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2257978215172941</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1595260844639786</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.09256640550353526</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1633862029428626</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.07689661761895662</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2818268679533728</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4463967386909842</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.04766781943201459</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.565621410478556</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.2365613239685938</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.4651433280792361</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.04011704549932738</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.01490087764421492</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.01697982315651492</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.02141260990349126</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.01683760604610499</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.02329785808843267</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.01382392191257216</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.9714710356154904</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.9732467871253259</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>OR2K2-1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>162207</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5455.582533615995</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1494510101290327</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1759480170399551</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2058974027014864</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1013643061026959</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.112738661093541</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.254600602933289</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.07140530636653519</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.07624715394247761</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.4060379999928487</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.3370954297906252</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.04132947794954367</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1067160338176895</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.007218255053551755</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.006783129560224002</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.006444965640922257</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.008471439104939974</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.008142075433419582</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.005907387479574967</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.9999920070715336</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>OR4M2B-1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>245449</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3682.065585187156</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.171449058663918</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1819685555858855</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1631336856128972</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1302307200273784</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.1244983682964689</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2287196118134521</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1095846053102616</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1258890363643008</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.09852049379798622</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.03602206874890523</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.08361021857380879</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.268265405860089</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.005699144909374695</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.005570259936072538</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.005811455866455345</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.006346629917560912</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.006502347980874922</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.005058235044526997</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.9999995923297464</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OR4N4C-1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>40471</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1768.519909177482</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1474636159225124</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1266091769415137</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1566306738158187</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1608312124731289</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.07751229275283536</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3309530280941909</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.08353878277223448</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.321860415859895</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03969778548470959</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2190213802900685</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.4589194877872527</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.2764725628458155</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.01414059458371324</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.01505738623666913</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.01380542433801349</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.01367519833383772</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.01870697737124709</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.01067164618293525</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.9999999517213083</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.971145529686062</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OR5G3-1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>660</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.37975625907477</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.008857158913104644</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1757575757575758</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1681818181818182</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1742424242424243</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1272727272727273</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1393939393939394</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2151515151515151</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1272432968404797</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.01607533009982931</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1666833405419224</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.05850789330896244</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2044195218303446</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.319173296989993</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1022852913327856</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1040852033719475</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1026352188401913</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1168106326230535</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1124031303160057</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.09473648316316063</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.008857158913104644</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.8921425521350673</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.8016674891612573</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.9333906793788401</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.8340807111998557</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.9542232988126548</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.9988688217579805</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.9988688217579805</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PAQR3-1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1485</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1021.721221888247</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.191647024080566e-218</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.06127946127946128</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3494949494949495</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.04377104377104377</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.2343434343434344</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.07474747474747474</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.5002332408489645</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-1.114935935032212</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.102246786857667</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-1.217740614175757</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8414994589424629</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-1.541553597852344</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.06110805987107441</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.1082108965332665</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.05445600222272819</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.1268569731148674</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.06129771369981757</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.09868666109944317</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.462475893189785e-218</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.9999999999999981</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PAQR5-1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5696</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1200.869721135533</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.903708544359476e-257</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1578300561797753</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.08655196629213484</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0995435393258427</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.07180477528089887</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.231566011235955</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3527036516853932</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.001904602248784304</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.7433045510034828</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.4808526120304355</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.6938559690154775</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8280448865704255</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3688968452363401</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.03638920187487755</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.04715745339307124</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.04429578988708806</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.05136133476944205</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.03147969602872813</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.02777112291514973</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.447625271319326e-257</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.5874214773053034</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PAQR6-1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5171</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1732.422558058073</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1866176754979695</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3664668342680333</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07426029781473603</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04351189325082189</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0767743183136724</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2523689808547669</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2009201943462176</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.070590972936179</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.8019220241783371</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-1.225236804597731</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.4632112845573713</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.1112056350006964</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.03574057522347718</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.02891704491094284</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0530711114636855</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.06819443994175538</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.05227523602805983</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.03204994493458937</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.9999998939496534</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.9980183381361596</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PAQR7-1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>93</v>
+      </c>
+      <c r="C18" t="n">
+        <v>21.03869830413947</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.000796535129562588</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3440860215053764</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1397849462365591</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1075268817204301</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1827956989247312</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.02390558073258453</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.9695542941879859</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.09459609018677284</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.8073736522216801</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.09157193737842828</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.5224770870867862</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.2819406576281273</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.2182811692247192</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.2990427218570982</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.4220956875173438</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.3347424779619915</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.2682977253716316</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.000827171096084226</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.906623945065991</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.9999701753804272</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.9131203753455083</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.974421697457063</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.918564310790269</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.9763816297042744</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.9999701753804272</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PAQR8-1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2660</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1399.803129704184</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.518665703699156e-300</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1466165413533835</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03947368421052631</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3733082706766918</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.02969924812030075</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.07067669172932331</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3402255639097744</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.08892760541928135</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1.578294505283626</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.206486969619719</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-1.620752543863337</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.5521839119319769</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3131695195066696</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.05484514333431439</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.09959129688820068</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.04012992541284865</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.1142345216221202</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.07568366193061758</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.04095144974014638</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.158103894730379e-300</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.886828827675848</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.9999999999983438</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.9999999999998497</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TAS2R1-1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>41254</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1379.393669344907</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.015742488511929e-296</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1443011586755224</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1793765453046977</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.11019537499394</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1728559654821351</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1419983516749891</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2512726038687157</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.1093946479111227</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.09588374599267668</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.3722848522212643</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.3075953128590823</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2305243693203478</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.118906182776215</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.01413235843361405</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.01296010222795324</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.01583472197694931</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.01317113372054033</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.01426145658864665</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.01145117489463752</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5.421252359491105e-296</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.9999999999998198</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.9999999999973919</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TAS2R13-1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>191763</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7321.32168917442</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1180363260900174</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1345097855164969</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1660174277623942</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1659496357482935</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1440736742750165</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2714131506077815</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.3665035097943121</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.2681388865116274</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1189389066353972</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.2783052329950493</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.268007064728669</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.01356052374768679</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.00732748285743587</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.006947859919027222</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.006441239837830433</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.006478275671465127</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.006864387872091216</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.005368887486751592</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.83618779230105</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TAS2R14-1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>150398</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2763.354931017106</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1450950145613638</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1601085120812777</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1231731804944215</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1602813867205681</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1069229644011224</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3044189417412466</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.1080462664202653</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.04581492055127012</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.2560333515249436</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2271296619483401</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.1046451845986023</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.159804314650614</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.007561874135053071</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0072729611406861</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.008077494787240286</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.007319748293004512</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.008616949178534776</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.005815465535861856</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.9999999914827404</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TAS2R19-1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>173613</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2401.58615900831</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1577992431442346</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1759257659276667</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1601838571996337</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.151734029133763</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1254571950257181</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2288999095689839</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.002310577401619884</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.07651193045370097</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.07127689547297278</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.1587087270135035</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.09016574814535971</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.2583941296066625</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.006853983426472677</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.006575834108280916</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.006826123656621266</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.006997442924525039</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.007564500103103197</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.005920020985881511</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.2212728035641595</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TAS2R31-1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>124333</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4195.202215274954</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1186732404108322</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1657403907249081</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1415714251244641</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1293220625256368</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1657001761398824</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2789927050742763</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.3497932406402495</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.001570307135102755</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.08436887713432095</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.0424907816702873</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.4365705483920697</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.02711210617462434</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.008967156703139913</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.007847506940915065</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.008357390266142548</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.008689050560151292</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.007928975124071288</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.006508635762538096</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.2387175625836559</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.999981083949259</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.9993301460149197</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TAS2R50-1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>232859</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7052.357302615459</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1417123667111857</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1746121043206404</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1122911289664561</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1466209165202977</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.102452557126845</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3223109263545751</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.1427799369520619</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.06863571080959674</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.3800644731174121</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.118220639617671</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.1614547075990629</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.2603366920347883</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.006246233446945122</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.00578057243125382</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.00684573557890437</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.006217610369668538</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.007174896370458352</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.00471162456915814</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TAS2R7-1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>33010</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5630.649234314475</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1117843077855195</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1877309906089064</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.06598000605877007</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.145683126325356</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0711905483186913</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4176310209027567</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.4052748522243295</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1521737365834221</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.9375821281123644</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.09945062672724947</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.5504378957309739</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.6533966066726373</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.01756422617043208</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.01421066964710218</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.02225018656145649</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.01572624892961369</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.02150637166160676</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.01126258072158278</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.9999999965742807</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>VN1R3-1</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>62883</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3296.709661021566</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.163335082613743</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1544455576228869</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2273746481560994</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.09554251546522907</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1145778668320532</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2447243293099884</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.04008385169183293</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.08791043851108715</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.516426810075084</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.3904880441897711</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.02069932836490418</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.1561186745374518</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.01094636819720605</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01118420739802103</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.009702481461028775</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.01370987524006332</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.01269684028629459</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.009399066013025363</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.997141111273105</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.9999999999999112</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.6523342607086674</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>VN1R5-1</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>47185</v>
+      </c>
+      <c r="C28" t="n">
+        <v>881.346242142963</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.898086109567571e-188</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.119805022782664</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1691639292147928</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1557698421108403</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1670234184592561</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1150153650524531</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.2732224223799937</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.3278911911047642</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0235750559260075</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.03314561222956947</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.2660863513065601</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.01615561471214155</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.003342733204751314</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.01429641949433413</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.01241316365219794</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.01283381821112171</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.01250122338860721</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.01458208159725849</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.01044133220176347</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.40210108514454e-188</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.7466968811886491</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.933701304527472</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.5131993653417726</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.3008975130581923</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>